--- a/data/Subset1_WithDialogActs/Number lines 3_Grade 4.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Number lines 3_Grade 4.xlsx_with_dialog_acts.xlsx
@@ -741,12 +741,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -969,12 +969,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1311,12 +1311,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1691,12 +1691,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2657,12 +2657,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2695,12 +2695,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2885,12 +2885,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3265,12 +3265,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3949,12 +3949,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3987,12 +3987,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4147,12 +4147,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4337,12 +4337,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4451,12 +4451,12 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4755,12 +4755,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5409,12 +5409,12 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5827,12 +5827,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5941,12 +5941,12 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6021,12 +6021,12 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6097,12 +6097,12 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6443,12 +6443,12 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6557,12 +6557,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6937,12 +6937,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6975,12 +6975,12 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7169,12 +7169,12 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7519,12 +7519,12 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7637,12 +7637,12 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7827,12 +7827,12 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
